--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N2">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O2">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P2">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q2">
-        <v>4527.006536689732</v>
+        <v>8843.262610210535</v>
       </c>
       <c r="R2">
-        <v>40743.05883020758</v>
+        <v>79589.36349189482</v>
       </c>
       <c r="S2">
-        <v>0.7203672545489928</v>
+        <v>0.8297112431454772</v>
       </c>
       <c r="T2">
-        <v>0.7203672545489926</v>
+        <v>0.8297112431454774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N3">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O3">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P3">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q3">
-        <v>66.63560799983956</v>
+        <v>136.0206116905837</v>
       </c>
       <c r="R3">
-        <v>599.720471998556</v>
+        <v>1224.185505215254</v>
       </c>
       <c r="S3">
-        <v>0.01060349915579043</v>
+        <v>0.01276201282193016</v>
       </c>
       <c r="T3">
-        <v>0.01060349915579043</v>
+        <v>0.01276201282193017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.819531</v>
       </c>
       <c r="O4">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P4">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q4">
-        <v>54.59158997998711</v>
+        <v>111.4356375686895</v>
       </c>
       <c r="R4">
-        <v>491.324309819884</v>
+        <v>1002.920738118206</v>
       </c>
       <c r="S4">
-        <v>0.008686975262046747</v>
+        <v>0.01045534950766604</v>
       </c>
       <c r="T4">
-        <v>0.008686975262046747</v>
+        <v>0.01045534950766604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N5">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O5">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P5">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q5">
-        <v>502.9894547468338</v>
+        <v>481.3510479885436</v>
       </c>
       <c r="R5">
-        <v>4526.905092721504</v>
+        <v>4332.159431896892</v>
       </c>
       <c r="S5">
-        <v>0.0800390124570092</v>
+        <v>0.04516233363406184</v>
       </c>
       <c r="T5">
-        <v>0.08003901245700919</v>
+        <v>0.04516233363406185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N6">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O6">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P6">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q6">
-        <v>7.403790531981779</v>
+        <v>7.403790531981778</v>
       </c>
       <c r="R6">
-        <v>66.63411478783601</v>
+        <v>66.634114787836</v>
       </c>
       <c r="S6">
-        <v>0.001178140171778833</v>
+        <v>0.0006946540566585149</v>
       </c>
       <c r="T6">
-        <v>0.001178140171778833</v>
+        <v>0.000694654056658515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>7.819531</v>
       </c>
       <c r="O7">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P7">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q7">
         <v>6.065596295311556</v>
@@ -880,10 +880,10 @@
         <v>54.590366657804</v>
       </c>
       <c r="S7">
-        <v>0.0009651978443245612</v>
+        <v>0.0005690991735098701</v>
       </c>
       <c r="T7">
-        <v>0.0009651978443245612</v>
+        <v>0.0005690991735098702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N8">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O8">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P8">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q8">
-        <v>1090.411271816336</v>
+        <v>1043.502211575178</v>
       </c>
       <c r="R8">
-        <v>9813.701446347024</v>
+        <v>9391.519904176599</v>
       </c>
       <c r="S8">
-        <v>0.1735134614543732</v>
+        <v>0.09790566619512422</v>
       </c>
       <c r="T8">
-        <v>0.1735134614543732</v>
+        <v>0.09790566619512424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N9">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O9">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P9">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q9">
         <v>16.050389474474</v>
@@ -1004,10 +1004,10 @@
         <v>144.453505270266</v>
       </c>
       <c r="S9">
-        <v>0.002554044246780227</v>
+        <v>0.001505913506227749</v>
       </c>
       <c r="T9">
-        <v>0.002554044246780227</v>
+        <v>0.001505913506227749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.819531</v>
       </c>
       <c r="O10">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P10">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q10">
         <v>13.149370246786</v>
@@ -1066,10 +1066,10 @@
         <v>118.344332221074</v>
       </c>
       <c r="S10">
-        <v>0.002092414858904069</v>
+        <v>0.001233727959344319</v>
       </c>
       <c r="T10">
-        <v>0.002092414858904069</v>
+        <v>0.001233727959344319</v>
       </c>
     </row>
   </sheetData>
